--- a/DOM_Banner/output/dept_banner/Michael Insel_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Michael Insel_2023.xlsx
@@ -1245,7 +1245,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4252371801", "https://openalex.org/W1969934549", "https://openalex.org/W2187213851", "https://openalex.org/W3209956898", "https://openalex.org/W2232636853", "https://openalex.org/W2324025391", "https://openalex.org/W1574052502", "https://openalex.org/W2955490943", "https://openalex.org/W2410804831", "https://openalex.org/W4234207941")</t>
+          <t>c("https://openalex.org/W2090007074", "https://openalex.org/W4281261429", "https://openalex.org/W4205683907", "https://openalex.org/W4327921319", "https://openalex.org/W1976433721", "https://openalex.org/W2414935542", "https://openalex.org/W4387268337", "https://openalex.org/W2438041563", "https://openalex.org/W2347635326", "https://openalex.org/W2561050005")</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4306400573</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Michael Insel_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Michael Insel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City (R.J.B.).; Division of Cardiovascular Medicine, The Ohio State University, Columbus (R.R.V.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine (F.P.R., M.I.), University of Arizona, Tuscon.; Divison of Cardiology (T.A., S.K.), University of Arizona, Tuscon.; Department of Cardiovascular and Respiratory Science, Sapienza University of Rome, Italy (R.B.).; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Department of Pathophysiology, Free University of Brussels, Belgium (R.N.).; Department of Medicine (A.K., J.G.N.G.), University of Arizona, Tuscon.; Department of Quantitative Health Sciences (A.B.L., G.J.B.), Cleveland Clinic, Cleveland, OH.; Lerner Research Institute (S.C.E.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular Medicine, Mayo Clinic, Rochester, MN (R.P.F.).; Division of Pulmonary and Critical Care Medicine, Johns Hopkins University, Baltimore, MD (P.M.H.).; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center, Nashville, TN (A.R.H.).; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center, Boston, MA (N.S.H.).; Division of Cardiology, Perkin Heart Failure Center, Weill Cornell Medicine, New York, NY (E.M.H.).; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School, Boston, MA (J.A.L.).; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons, New York, NY (E.B.R.).; Department of Cardiovascular Medicine (D.H.K., M.M.P., W.H.W.T.), Cleveland Clinic, Cleveland, OH.; Department of Cardiovascular and Metabolic Sciences (J.D.W.), Cleveland Clinic, Cleveland, OH.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386407374</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Circulation: Heart Failure</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37664964</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circheartfailure.123.010555</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Cardiovascular Medicine, The Ohio State University, Columbus, Ohio and; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine and; Divison of Cardiology, University of Arizona, Tucson, Arizona; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine and</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317772724</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>The Acute Effects of Prostacyclin on Right Ventricular Contractility and Pulmonary Artery Coupling</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>American Journal of Respiratory and Critical Care Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Thoracic Society</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202210-1861le</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36689755</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/rccm.202210-1861le</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> University of Arizona;; Division of Pulmonary, Critical Care and Sleep Medicine, University of Oklahoma Health Sciences Center, Oklahoma City, OK;  The Ohio State University;;  Cleveland Clinic, Cleveland, OH;;  University of Arizona;;  Cleveland Clinic Foundation;;  University of Arizona;;  University of Arizona;;  University of Arizona;;  Sapienza University of Rome;;  Cleveland Clinic Foundation, Cleveland;;  Free University of Brussels;;  University of Arizona;;  Cleveland Clinic Foundation;; Lerner Research Institute, Cleveland Clinic; Department of Cardiovascular Medicine, Mayo Clinic;  Johns Hopkins University;; Division of Allergy, Pulmonary and Critical Care Medicine, Vanderbilt University Medical Center; Division of Pulmonary, Critical Care, and Sleep Medicine, Tufts Medical Center; Perkin Heart Failure Center, Division of Cardiology, Weill Cornell Medicine; Division of Cardiovascular Medicine, Brigham and Women’s Hospital, Harvard Medical School; Department of Pediatrics and Medicine, Columbia University, Vegelos College of Physicians and Surgeons;  Cleveland Clinic;;  Cleveland Clinic Foundation;</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321018683</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Classification and Predictors of Right Ventricular Functional Recovery in Pulmonary Arterial Hypertension</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-02-16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.15.23285974</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36824981</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.02.15.23285974</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Internal Medicine, Banner University Medical Center, Tucson, AZ, United States; Department of Cardiovascular Sciences, Leuven,  Belgium; Internal Medicine, University of Arizona, Tucson, AZ, United States; University of Arizona Hospital, Tucson, AZ, United States; Baker Heart and Diabetes Institute, Melbourne,  Australia; Baker Heart and Diabetes Institute, Melbourne,  Australia; Division of Pulmonary and Critical Care, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606695</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Post-acute Sequelae of SARS Co-V2 and Chronic Fatigue/Myalgic Encephalitis Share Similar Pathophysiologic Mechanisms of Exercise Limitation</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,14 +738,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a6470</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>The Ohio State University; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; University of Arizona, UNITED STATES; University of Florida, UNITED STATES; University of Arizona, UNITED STATES; The Ohio State University</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4385875440</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-08-15</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.08.09.23293912</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1101/2023.08.09.23293912</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona Department of Medicine, Tucson, United States; Legacy Health System, Portland, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States; University of Arizona Division of Cardiology, Tucson, United States; University of Arizona Division of Pulmonary Critical Care, Tucson, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4387980245</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Methamphetamine and idiopathic PAH: Similar treatment, similar outcomes</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-09-09</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,14 +912,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1183/13993003.congress-2023.pa1204</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,39 +974,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH; Division of Translational and Regenerative Medicine, The University of Arizona, Tucson, AZ; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Center for Inflammation Science and Systems Medicine, University of Florida; Division of Pulmonary, Allergy, Critical Care and Sleep Medicine, The University of Arizona, Tucson, AZ; Department of Biomedical Engineering, The Ohio State University, Columbus, OH; Division of Cardiovascular Medicine, The Ohio State University, Columbus, OH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4390064662</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Advanced Hemodynamic and Cluster Analysis for Identifying Novel RV function subphenotypes in Patients with Pulmonary Hypertension</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>The Journal of Heart and Lung Transplantation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/38141893</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.healun.2023.12.009</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
